--- a/Plotting/0.3.0/Traditional Rocketry/TraditionalRocketry.xlsx
+++ b/Plotting/0.3.0/Traditional Rocketry/TraditionalRocketry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.3.0\Traditional Rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95342C3D-F7CC-40FF-87EF-36FDE2171E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8792421-5AA6-4337-80AB-94291F7616FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="276" windowWidth="11520" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E303" sqref="E303"/>
+    <sheetView tabSelected="1" topLeftCell="B165" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1418,7 @@
     <col min="1" max="1" width="35.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,10 @@
         <v>1</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
+        <f>"@PART["&amp;A45&amp;"]:AFTER["&amp;D45&amp;"] //
+{
+	@TechRequired = "&amp;B45&amp;C45&amp;"
+}"</f>
         <v>@PART[SP_largeACESTank]:AFTER[Hephaistos] //
 {
 	@TechRequired = tanks9
@@ -2685,7 +2688,10 @@
         <v>14</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
+        <f>"@PART["&amp;A53&amp;"]:AFTER["&amp;D53&amp;"] //
+{
+	@TechRequired = "&amp;B53&amp;C53&amp;"
+}"</f>
         <v>@PART[Heatshield-M]:AFTER[KerbalReusabilityExpansion] //
 {
 	@TechRequired = landing9
@@ -4008,7 +4014,10 @@
         <v>8</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A108&amp;"]:AFTER["&amp;D108&amp;"] //
+{
+	@TechRequired = "&amp;B108&amp;C108&amp;"
+}"</f>
         <v>@PART[nflv-decoupler-75-1]:AFTER[NearFutureLaunchVehicles] //
 {
 	@TechRequired = construction10
